--- a/excel/F-钓鱼等级配置.xlsx
+++ b/excel/F-钓鱼等级配置.xlsx
@@ -1637,7 +1637,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1807,77 +1807,86 @@
     <row r="8" ht="18.5" customHeight="1" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
         <v>80</v>
       </c>
       <c r="D8" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>170</v>
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>100</v>
       </c>
       <c r="D10" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>190</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>8000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>130</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
-        <v>200</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C14" s="5">
+        <v>140</v>
+      </c>
+      <c r="D14" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A14" s="5"/>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:1">
       <c r="A15" s="5"/>

--- a/excel/F-钓鱼等级配置.xlsx
+++ b/excel/F-钓鱼等级配置.xlsx
@@ -7,10 +7,10 @@
     <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Common" sheetId="1" r:id="rId1"/>
+    <sheet name="fishLevel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Common!$A$5:$Q$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fishLevel!$A$5:$Q$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,36 +30,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>导出类型</t>
   </si>
   <si>
-    <t>base</t>
+    <t>array</t>
   </si>
   <si>
-    <t>导出文件头</t>
+    <t>level</t>
   </si>
   <si>
-    <t>FishLevel={</t>
+    <t>height</t>
   </si>
   <si>
-    <t>导出文件</t>
-  </si>
-  <si>
-    <t>fishLevel.json</t>
-  </si>
-  <si>
-    <t>导出文件尾</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>key数量</t>
-  </si>
-  <si>
-    <t>配置备注</t>
+    <t>exp</t>
   </si>
   <si>
     <t>名称</t>
@@ -71,22 +56,13 @@
     <t>所需经验</t>
   </si>
   <si>
-    <t>导出参数</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>number</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>exp</t>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -99,7 +75,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,17 +85,11 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,30 +98,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -386,7 +356,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +377,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +636,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -678,15 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="23"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +697,21 @@
       <top/>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,70 +859,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,10 +925,10 @@
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,10 +937,10 @@
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,10 +949,10 @@
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,10 +961,10 @@
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,39 +973,45 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="14" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="14" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1028,202 +1027,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1637,7 +1627,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1669,84 +1659,80 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1762,271 +1748,240 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:4">
+    <row r="5" ht="35" customHeight="1" spans="1:3">
       <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A7" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="B7" s="4">
         <v>80</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5">
+    <row r="8" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="B8" s="4">
         <v>90</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C8" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1">
+    <row r="9" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="B9" s="4">
         <v>100</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C9" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1">
+    <row r="10" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="B10" s="4">
         <v>110</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C10" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1">
+    <row r="11" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="5">
+      <c r="B11" s="4">
         <v>120</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C11" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1">
+    <row r="12" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="B12" s="4">
         <v>130</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C12" s="1">
         <v>8000</v>
       </c>
     </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1">
+    <row r="13" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="B13" s="4">
         <v>140</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C13" s="1">
         <v>20000</v>
       </c>
     </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A15" s="5"/>
-    </row>
+    <row r="14" ht="18.5" customHeight="1"/>
+    <row r="15" ht="18.5" customHeight="1"/>
     <row r="16" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:1">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="14"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="14"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="14"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="14"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="14"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="14"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="14"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="14"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="14"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="14"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="14"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="14"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="14"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="14"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="14"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="14"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="14"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="14"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="14"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="14"/>
+      <c r="G56" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:Q36">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="A3:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7">
-    <cfRule type="duplicateValues" dxfId="0" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="115"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/F-钓鱼等级配置.xlsx
+++ b/excel/F-钓鱼等级配置.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>导出类型</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>number</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1624,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1660,8 +1657,6 @@
         <v>1</v>
       </c>
       <c r="C1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1680,8 +1675,6 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1706,8 +1699,6 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1732,7 +1723,6 @@
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1764,10 +1754,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:3">
